--- a/wikipedia_validation_sheets/Pituitary apoplexy DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Pituitary apoplexy DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7CFA3531-A565-9D43-A701-620C3A5F0408}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F44654-735F-C94C-88BC-3E12189886E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38560" yWindow="460" windowWidth="20500" windowHeight="21040" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="196">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -468,9 +468,6 @@
     <t>lack of secretion of adrenocorticotropic hormone</t>
   </si>
   <si>
-    <t>CONFUSION</t>
-  </si>
-  <si>
     <t>deficiency in thyroid-stimulating hormone (TSH)</t>
   </si>
   <si>
@@ -480,13 +477,142 @@
     <t>disrupted menstrual cycle</t>
   </si>
   <si>
-    <t>INFERTILITY</t>
-  </si>
-  <si>
     <t>FPCONTEXT</t>
   </si>
   <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>infertility</t>
+  </si>
+  <si>
+    <t>Infertility</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>confusion</t>
+  </si>
+  <si>
+    <t>Confusion</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>tumors, tumour</t>
+  </si>
+  <si>
+    <t>Neoplasms</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>claustrophobia</t>
+  </si>
+  <si>
+    <t>Claustrophobia</t>
+  </si>
+  <si>
+    <t>hemorrhage, bleeding</t>
+  </si>
+  <si>
+    <t>Hemorrhage</t>
+  </si>
+  <si>
+    <t>suspicion</t>
+  </si>
+  <si>
+    <t>Suspicion</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>benign, tumour</t>
+  </si>
+  <si>
+    <t>Benign neoplasm</t>
+  </si>
+  <si>
+    <t>pituitary, adenoma, adenomas</t>
+  </si>
+  <si>
+    <t>Pituitary adenoma</t>
+  </si>
+  <si>
+    <t>attention</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>Hypersensitivity</t>
+  </si>
+  <si>
+    <t>abnormalities</t>
+  </si>
+  <si>
+    <t>Congenital abnormality</t>
+  </si>
+  <si>
+    <t>[cgab]</t>
+  </si>
+  <si>
+    <t>infarction</t>
+  </si>
+  <si>
+    <t>Infarction</t>
+  </si>
+  <si>
+    <t>pituitary, tumors</t>
+  </si>
+  <si>
+    <t>Pituitary tumor</t>
+  </si>
+  <si>
+    <t>complication</t>
+  </si>
+  <si>
+    <t>Complication</t>
+  </si>
+  <si>
+    <t>absence</t>
+  </si>
+  <si>
+    <t>Absence (morphologic abnormality)</t>
+  </si>
+  <si>
+    <t>[anab]</t>
+  </si>
+  <si>
+    <t>prolactinomas</t>
+  </si>
+  <si>
+    <t>Prolactinoma</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>Thinking, function</t>
+  </si>
+  <si>
+    <t>hemorrhagic, infarction</t>
+  </si>
+  <si>
+    <t>Hemorrhagic infarct</t>
+  </si>
+  <si>
+    <t>associations, association</t>
+  </si>
+  <si>
+    <t>Association</t>
   </si>
 </sst>
 </file>
@@ -562,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -786,51 +912,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -867,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -927,9 +1008,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -940,16 +1018,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1318,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1335,43 +1414,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1415,10 +1494,10 @@
       <c r="E5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -1512,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1860,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1947,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2179,7 +2258,7 @@
         <v>11</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3168,215 +3247,840 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="40"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="42"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="36" t="s">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E78" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E82" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="35"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="37"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="37" t="s">
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="23" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="24" t="s">
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="23" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="24" t="s">
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="23" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="24" t="s">
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="23" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="24" t="s">
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="23" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="24" t="s">
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="23" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="24" t="s">
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="23" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" s="24" t="s">
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="39" t="s">
-        <v>13</v>
-      </c>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="40"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="40"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
